--- a/data/trans_dic/P14_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,49</t>
+          <t>1,88; 7,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,94</t>
+          <t>0,46; 4,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,43</t>
+          <t>3,97; 10,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,15</t>
+          <t>0,26; 2,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,92</t>
+          <t>3,49; 7,72</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,1</t>
+          <t>2,39; 6,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,37</t>
+          <t>8,12; 13,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,04</t>
+          <t>2,6; 6,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,2</t>
+          <t>4,85; 8,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,02</t>
+          <t>2,88; 5,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 9,55</t>
+          <t>6,83; 10,29</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>25,18%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,3</t>
+          <t>4,69; 10,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 27,31</t>
+          <t>17,89; 26,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,77</t>
+          <t>5,29; 11,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,88; 31,47</t>
+          <t>23,96; 32,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,25</t>
+          <t>5,47; 9,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,15; 27,88</t>
+          <t>21,97; 28,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,56</t>
+          <t>2,16; 5,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 14,34</t>
+          <t>7,77; 15,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,45</t>
+          <t>2,26; 5,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 14,04</t>
+          <t>5,77; 11,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,15</t>
+          <t>2,6; 4,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,6</t>
+          <t>7,58; 12,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 5,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 14,57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 5,6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,04; 14,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 5,08</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 13,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20481</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41658</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>62139</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9943; 37437</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1942; 17897</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25194; 68181</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1969; 17368</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40580; 89884</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38927</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>124862</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41702</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>81043</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>80629</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>205904</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22249; 64152</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>97849; 166264</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26027; 63891</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>59692; 108806</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>55671; 111800</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>166324; 250796</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51203</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>187690</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60929</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>261831</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>112132</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>449521</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33579; 77564</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>150939; 227568</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40701; 85437</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>225629; 303684</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81218; 147926</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>392217; 501229</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52020</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>95316</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51337</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>61929</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>103356</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>157245</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31460; 80100</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>66874; 136401</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31714; 75099</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>43703; 88880</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>74314; 138937</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>122664; 203363</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>142150</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>428349</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>160242</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>446460</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>302392</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>874809</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>109110; 183246</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>365531; 500878</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>125725; 201338</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>393440; 507631</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>253431; 357531</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>787391; 958692</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>